--- a/main/results/tables/compas.xlsx
+++ b/main/results/tables/compas.xlsx
@@ -470,16 +470,16 @@
         <v>0.99</v>
       </c>
       <c r="C2" t="n">
-        <v>1.191919191919192</v>
+        <v>5.161616161616162</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197593986139058</v>
+        <v>2.199146899475081</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1830084839982939</v>
+        <v>2.163708741019674</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1684071368384692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -507,243 +507,243 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>cchvae</t>
+          <t>wachter</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="C4" t="n">
-        <v>5.73</v>
+        <v>3.56</v>
       </c>
       <c r="D4" t="n">
-        <v>2.803325219740157</v>
+        <v>5.208734676873722</v>
       </c>
       <c r="E4" t="n">
-        <v>2.139333228311118</v>
+        <v>100.1133167941762</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9824790439793938</v>
+        <v>1.70617793086653</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>clue</t>
+          <t>face-knn</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.83</v>
+        <v>5.12</v>
       </c>
       <c r="D5" t="n">
-        <v>2.076470991312613</v>
+        <v>2.806598448043185</v>
       </c>
       <c r="E5" t="n">
-        <v>1.454493131918217</v>
+        <v>2.476218512671286</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8739165748862281</v>
+        <v>0.9553778677462887</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>revise</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9</v>
+        <v>4.83</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8163907499999999</v>
+        <v>1.824670988148446</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8045457230575311</v>
+        <v>1.224971012286851</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5073085394736842</v>
+        <v>0.8813361167147559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>wachter</t>
+          <t>cem</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3.56</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>5.208734676873722</v>
+        <v>1.389180626876773</v>
       </c>
       <c r="E7" t="n">
-        <v>100.1133167941762</v>
+        <v>1.0909338597036</v>
       </c>
       <c r="F7" t="n">
-        <v>1.70617793086653</v>
+        <v>0.8352631578947368</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>cem-vae</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2.44</v>
+        <v>3.98</v>
       </c>
       <c r="D8" t="n">
-        <v>1.761591970310391</v>
+        <v>1.357806435920778</v>
       </c>
       <c r="E8" t="n">
-        <v>1.533711892708396</v>
+        <v>1.052866545500113</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9297311403508772</v>
+        <v>0.8352631578947368</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>gs</t>
+          <t>dice</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3.76</v>
+        <v>2.44</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9528221717893516</v>
+        <v>1.761591970310391</v>
       </c>
       <c r="E9" t="n">
-        <v>0.790185794911023</v>
+        <v>1.533711892708396</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7527914303274704</v>
+        <v>0.9297311403508772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>cem</t>
+          <t>face-epsilon</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>4.97</v>
       </c>
       <c r="D10" t="n">
-        <v>1.389180626876773</v>
+        <v>2.725550185560054</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0909338597036</v>
+        <v>2.405854398579997</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8352631578947368</v>
+        <v>0.9589381916329285</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>cem-vae</t>
+          <t>clue</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3.98</v>
+        <v>4.83</v>
       </c>
       <c r="D11" t="n">
-        <v>1.357806435920778</v>
+        <v>2.076470991312613</v>
       </c>
       <c r="E11" t="n">
-        <v>1.052866545500113</v>
+        <v>1.454493131918217</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8352631578947368</v>
+        <v>0.8739165748862281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>face-epsilon</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="C12" t="n">
-        <v>4.97</v>
+        <v>0.9</v>
       </c>
       <c r="D12" t="n">
-        <v>2.725550185560054</v>
+        <v>0.8163907499999999</v>
       </c>
       <c r="E12" t="n">
-        <v>2.405854398579997</v>
+        <v>0.8045457230575311</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9589381916329285</v>
+        <v>0.5073085394736842</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>revise</t>
+          <t>cchvae</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>4.83</v>
+        <v>5.73</v>
       </c>
       <c r="D13" t="n">
-        <v>1.824670988148446</v>
+        <v>2.803325219740157</v>
       </c>
       <c r="E13" t="n">
-        <v>1.224971012286851</v>
+        <v>2.139333228311118</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8813361167147559</v>
+        <v>0.9824790439793938</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>face-knn</t>
+          <t>gs</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>5.12</v>
+        <v>3.76</v>
       </c>
       <c r="D14" t="n">
-        <v>2.806598448043185</v>
+        <v>0.9528221717893516</v>
       </c>
       <c r="E14" t="n">
-        <v>2.476218512671286</v>
+        <v>0.790185794911023</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9553778677462887</v>
+        <v>0.7527914303274704</v>
       </c>
     </row>
   </sheetData>

--- a/main/results/tables/compas.xlsx
+++ b/main/results/tables/compas.xlsx
@@ -485,265 +485,265 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>cruds</t>
+          <t>cem</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5.03</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.056648763949894</v>
+        <v>1.389180626876773</v>
       </c>
       <c r="E3" t="n">
-        <v>1.516368121760769</v>
+        <v>1.0909338597036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9128466555946751</v>
+        <v>0.8352631578947368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>cchvae</t>
+          <t>wachter</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="C4" t="n">
-        <v>5.73</v>
+        <v>3.56</v>
       </c>
       <c r="D4" t="n">
-        <v>2.803325219740157</v>
+        <v>5.208734676873722</v>
       </c>
       <c r="E4" t="n">
-        <v>2.139333228311118</v>
+        <v>100.1133167941762</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9824790439793938</v>
+        <v>1.70617793086653</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>clue</t>
+          <t>face-epsilon</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.83</v>
+        <v>4.97</v>
       </c>
       <c r="D5" t="n">
-        <v>2.076470991312613</v>
+        <v>2.725550185560054</v>
       </c>
       <c r="E5" t="n">
-        <v>1.454493131918217</v>
+        <v>2.405854398579997</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8739165748862281</v>
+        <v>0.9589381916329285</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>cchvae</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9</v>
+        <v>5.73</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8163907499999999</v>
+        <v>2.803325219740157</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8045457230575311</v>
+        <v>2.139333228311118</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5073085394736842</v>
+        <v>0.9824790439793938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>wachter</t>
+          <t>revise</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3.56</v>
+        <v>4.83</v>
       </c>
       <c r="D7" t="n">
-        <v>5.208734676873722</v>
+        <v>1.824670988148446</v>
       </c>
       <c r="E7" t="n">
-        <v>100.1133167941762</v>
+        <v>1.224971012286851</v>
       </c>
       <c r="F7" t="n">
-        <v>1.70617793086653</v>
+        <v>0.8813361167147559</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="C8" t="n">
-        <v>2.44</v>
+        <v>0.9</v>
       </c>
       <c r="D8" t="n">
-        <v>1.761591970310391</v>
+        <v>0.8163907499999999</v>
       </c>
       <c r="E8" t="n">
-        <v>1.533711892708396</v>
+        <v>0.8045457230575311</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9297311403508772</v>
+        <v>0.5073085394736842</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>gs</t>
+          <t>cruds</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3.76</v>
+        <v>5.03</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9528221717893516</v>
+        <v>2.056648763949894</v>
       </c>
       <c r="E9" t="n">
-        <v>0.790185794911023</v>
+        <v>1.516368121760769</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7527914303274704</v>
+        <v>0.9128466555946751</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>cem</t>
+          <t>face-knn</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5.12</v>
       </c>
       <c r="D10" t="n">
-        <v>1.389180626876773</v>
+        <v>2.806598448043185</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0909338597036</v>
+        <v>2.476218512671286</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8352631578947368</v>
+        <v>0.9553778677462887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>cem-vae</t>
+          <t>clue</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3.98</v>
+        <v>4.83</v>
       </c>
       <c r="D11" t="n">
-        <v>1.357806435920778</v>
+        <v>2.076470991312613</v>
       </c>
       <c r="E11" t="n">
-        <v>1.052866545500113</v>
+        <v>1.454493131918217</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8352631578947368</v>
+        <v>0.8739165748862281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>face-epsilon</t>
+          <t>cem-vae</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.97</v>
+        <v>3.98</v>
       </c>
       <c r="D12" t="n">
-        <v>2.725550185560054</v>
+        <v>1.357806435920778</v>
       </c>
       <c r="E12" t="n">
-        <v>2.405854398579997</v>
+        <v>1.052866545500113</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9589381916329285</v>
+        <v>0.8352631578947368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>revise</t>
+          <t>gs</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>4.83</v>
+        <v>3.76</v>
       </c>
       <c r="D13" t="n">
-        <v>1.824670988148446</v>
+        <v>0.9528221717893516</v>
       </c>
       <c r="E13" t="n">
-        <v>1.224971012286851</v>
+        <v>0.790185794911023</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8813361167147559</v>
+        <v>0.7527914303274704</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>face-knn</t>
+          <t>dice</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>5.12</v>
+        <v>2.44</v>
       </c>
       <c r="D14" t="n">
-        <v>2.806598448043185</v>
+        <v>1.761591970310391</v>
       </c>
       <c r="E14" t="n">
-        <v>2.476218512671286</v>
+        <v>1.533711892708396</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9553778677462887</v>
+        <v>0.9297311403508772</v>
       </c>
     </row>
   </sheetData>

--- a/main/results/tables/compas.xlsx
+++ b/main/results/tables/compas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,265 +485,221 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>cem</t>
+          <t>face-knn</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>15.53369195207143</v>
       </c>
       <c r="D3" t="n">
-        <v>1.389180626876773</v>
+        <v>49.13011562692634</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0909338597036</v>
+        <v>1128.518752337495</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8352631578947368</v>
+        <v>108.3578934703077</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>wachter</t>
+          <t>dice</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>3.56</v>
+        <v>33.98934500833334</v>
       </c>
       <c r="D4" t="n">
-        <v>5.208734676873722</v>
+        <v>59.35752915839514</v>
       </c>
       <c r="E4" t="n">
-        <v>100.1133167941762</v>
+        <v>105.7838445710516</v>
       </c>
       <c r="F4" t="n">
-        <v>1.70617793086653</v>
+        <v>87.16566050438655</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>face-epsilon</t>
+          <t>cchvae</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.97</v>
+        <v>9.628893003238096</v>
       </c>
       <c r="D5" t="n">
-        <v>2.725550185560054</v>
+        <v>20.95153073975084</v>
       </c>
       <c r="E5" t="n">
-        <v>2.405854398579997</v>
+        <v>29.99150357596599</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9589381916329285</v>
+        <v>55.26166336831749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>cchvae</t>
+          <t>clue</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5.73</v>
+        <v>19.4032325785</v>
       </c>
       <c r="D6" t="n">
-        <v>2.803325219740157</v>
+        <v>50.82135965033636</v>
       </c>
       <c r="E6" t="n">
-        <v>2.139333228311118</v>
+        <v>89.80743963893373</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9824790439793938</v>
+        <v>111.7907486823867</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>revise</t>
+          <t>cruds</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4.83</v>
+        <v>17.57648285559524</v>
       </c>
       <c r="D7" t="n">
-        <v>1.824670988148446</v>
+        <v>50.66177961118662</v>
       </c>
       <c r="E7" t="n">
-        <v>1.224971012286851</v>
+        <v>85.92389996374665</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8813361167147559</v>
+        <v>99.95343782682214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>cem</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9</v>
+        <v>20.63110641733333</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8163907499999999</v>
+        <v>100.8232904601979</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8045457230575311</v>
+        <v>349.8987473563467</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5073085394736842</v>
+        <v>125.4288327353597</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>cruds</t>
+          <t>wachter</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="C9" t="n">
-        <v>5.03</v>
+        <v>6.2926589535</v>
       </c>
       <c r="D9" t="n">
-        <v>2.056648763949894</v>
+        <v>159.3113481599378</v>
       </c>
       <c r="E9" t="n">
-        <v>1.516368121760769</v>
+        <v>11304.82193388034</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9128466555946751</v>
+        <v>601.2263835808923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>face-knn</t>
+          <t>face-epsilon</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5.12</v>
+        <v>15.89281101821429</v>
       </c>
       <c r="D10" t="n">
-        <v>2.806598448043185</v>
+        <v>52.83096651546239</v>
       </c>
       <c r="E10" t="n">
-        <v>2.476218512671286</v>
+        <v>1086.996173822396</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9553778677462887</v>
+        <v>109.0872926566667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>clue</t>
+          <t>gs</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>4.83</v>
+        <v>13.71322545833333</v>
       </c>
       <c r="D11" t="n">
-        <v>2.076470991312613</v>
+        <v>266.278842631892</v>
       </c>
       <c r="E11" t="n">
-        <v>1.454493131918217</v>
+        <v>28006.83932611461</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8739165748862281</v>
+        <v>459.8404036686949</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>cem-vae</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="C12" t="n">
-        <v>3.98</v>
+        <v>10.20333166333333</v>
       </c>
       <c r="D12" t="n">
-        <v>1.357806435920778</v>
+        <v>14.8592423095449</v>
       </c>
       <c r="E12" t="n">
-        <v>1.052866545500113</v>
+        <v>29.66194059493817</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8352631578947368</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>gs</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9528221717893516</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.790185794911023</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7527914303274704</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>dice</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.761591970310391</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.533711892708396</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.9297311403508772</v>
+        <v>18.37380823208987</v>
       </c>
     </row>
   </sheetData>
